--- a/维护组/维护组数据库设计.xlsx
+++ b/维护组/维护组数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -941,29 +941,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -977,13 +962,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1268,25 +1268,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1299,16 +1299,16 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>190</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>192</v>
       </c>
@@ -1452,29 +1452,29 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1" t="s">
         <v>73</v>
       </c>
@@ -1488,11 +1488,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1516,32 +1516,32 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="1" t="s">
         <v>194</v>
       </c>
@@ -1554,16 +1554,16 @@
       <c r="F24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="1" t="s">
         <v>74</v>
       </c>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>48</v>
       </c>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>49</v>
       </c>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>50</v>
       </c>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>51</v>
       </c>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>52</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>53</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>54</v>
       </c>
@@ -1664,29 +1664,29 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="1" t="s">
         <v>195</v>
       </c>
@@ -1699,16 +1699,16 @@
       <c r="F36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="1" t="s">
         <v>64</v>
       </c>
@@ -1719,10 +1719,10 @@
       <c r="F37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>65</v>
       </c>
@@ -1733,12 +1733,12 @@
       <c r="F38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>66</v>
       </c>
@@ -1749,10 +1749,10 @@
       <c r="F39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>67</v>
       </c>
@@ -1763,13 +1763,13 @@
       <c r="F40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>68</v>
       </c>
@@ -1780,12 +1780,12 @@
       <c r="F41" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>69</v>
       </c>
@@ -1796,28 +1796,28 @@
       <c r="F42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="1" t="s">
         <v>77</v>
       </c>
@@ -1831,11 +1831,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="8"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="1" t="s">
         <v>78</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>81</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>91</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>92</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>96</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
         <v>93</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>94</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>95</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
         <v>98</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>97</v>
       </c>
@@ -1955,11 +1955,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B60" s="6"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="1" t="s">
         <v>101</v>
       </c>
@@ -1973,11 +1973,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="8"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="1" t="s">
         <v>102</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>113</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>114</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
         <v>103</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
         <v>115</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>116</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>117</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>197</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>119</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
         <v>118</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
         <v>120</v>
       </c>
@@ -2109,11 +2109,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B75" s="6"/>
+      <c r="B75" s="13"/>
       <c r="C75" s="1" t="s">
         <v>123</v>
       </c>
@@ -2127,11 +2127,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="8"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="1" t="s">
         <v>130</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
         <v>131</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
         <v>132</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
         <v>133</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
         <v>134</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
         <v>135</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
         <v>136</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
         <v>137</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
         <v>138</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
         <v>139</v>
       </c>
@@ -2251,11 +2251,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B89" s="6"/>
+      <c r="B89" s="13"/>
       <c r="C89" s="1" t="s">
         <v>101</v>
       </c>
@@ -2269,11 +2269,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
+    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B90" s="8"/>
+      <c r="B90" s="15"/>
       <c r="C90" s="1" t="s">
         <v>102</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
         <v>113</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
         <v>141</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="s">
         <v>142</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="s">
         <v>143</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="s">
         <v>144</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C96" s="1" t="s">
         <v>120</v>
       </c>
@@ -2357,11 +2357,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="13" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B100" s="14"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="2" t="s">
         <v>147</v>
       </c>
@@ -2374,16 +2374,16 @@
       <c r="F100" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G100" s="17" t="s">
+      <c r="G100" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H100" s="18"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="15" t="s">
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B101" s="16"/>
+      <c r="B101" s="11"/>
       <c r="C101" s="2" t="s">
         <v>159</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="2" t="s">
         <v>160</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C103" s="2" t="s">
         <v>161</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C104" s="2" t="s">
         <v>162</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C105" s="2" t="s">
         <v>163</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C106" s="2" t="s">
         <v>164</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C107" s="2" t="s">
         <v>180</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
         <v>198</v>
       </c>
@@ -2479,11 +2479,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="13" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B112" s="14"/>
+      <c r="B112" s="9"/>
       <c r="C112" s="2" t="s">
         <v>196</v>
       </c>
@@ -2496,16 +2496,16 @@
       <c r="F112" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G112" s="17" t="s">
+      <c r="G112" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H112" s="18"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="15" t="s">
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B113" s="16"/>
+      <c r="B113" s="11"/>
       <c r="C113" s="2" t="s">
         <v>173</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C114" s="2" t="s">
         <v>174</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C115" s="2" t="s">
         <v>175</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C116" s="2" t="s">
         <v>176</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C117" s="2" t="s">
         <v>177</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C118" s="2" t="s">
         <v>178</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C119" s="2" t="s">
         <v>183</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="4"/>
@@ -2597,11 +2597,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A112:B112"/>
     <mergeCell ref="A113:B113"/>
     <mergeCell ref="G112:H112"/>
     <mergeCell ref="A2:B2"/>
@@ -2618,6 +2613,11 @@
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A112:B112"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="G41:H41"/>

--- a/维护组/维护组数据库设计.xlsx
+++ b/维护组/维护组数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="195">
   <si>
     <r>
       <t>v</t>
@@ -196,10 +196,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sn号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是否领取</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -221,10 +217,6 @@
   </si>
   <si>
     <t>发放it</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_sn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -793,14 +785,6 @@
   </si>
   <si>
     <t>用于时间排序功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -941,25 +925,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -974,10 +949,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -985,6 +960,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I120"/>
+  <dimension ref="A2:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1283,10 +1267,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1299,16 +1283,16 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="5"/>
+      <c r="G2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1381,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
@@ -1418,7 +1402,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -1442,14 +1426,14 @@
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -1471,12 +1455,12 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>0</v>
@@ -1489,10 +1473,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1538,12 +1522,12 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>0</v>
@@ -1554,18 +1538,18 @@
       <c r="F24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="16"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>0</v>
@@ -1578,7 +1562,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>0</v>
@@ -1591,7 +1575,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>0</v>
@@ -1604,7 +1588,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>0</v>
@@ -1617,23 +1601,22 @@
     </row>
     <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="1" t="s">
@@ -1642,7 +1625,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>0</v>
@@ -1653,16 +1636,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
@@ -1677,129 +1654,129 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
+      <c r="A35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="15"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+        <v>59</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H41" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H42" s="16"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C43" s="3"/>
@@ -1807,40 +1784,46 @@
       <c r="E43" s="4"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3"/>
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="13"/>
+      <c r="A46" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="12"/>
       <c r="C46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="15"/>
       <c r="C47" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="1" t="s">
@@ -1849,10 +1832,10 @@
     </row>
     <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="1" t="s">
@@ -1861,209 +1844,209 @@
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C56" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="1" t="s">
-        <v>21</v>
+      <c r="B59" s="10"/>
+      <c r="C59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="13"/>
+      <c r="A60" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="12"/>
       <c r="C60" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B61" s="15"/>
       <c r="C61" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="1" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>0</v>
@@ -2075,14 +2058,14 @@
     </row>
     <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
@@ -2094,540 +2077,528 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C71" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B75" s="13"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E75" s="2"/>
       <c r="F75" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" s="15"/>
       <c r="C76" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="1" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C85" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" s="1" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B89" s="13"/>
+      <c r="A89" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" s="12"/>
       <c r="C89" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E89" s="2"/>
       <c r="F89" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B90" s="15"/>
       <c r="C90" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="1" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C96" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="1" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99" s="19"/>
+      <c r="C99" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H99" s="8"/>
+    </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B100" s="9"/>
+      <c r="A100" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" s="6"/>
       <c r="C100" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G100" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H100" s="7"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B101" s="11"/>
       <c r="C101" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C103" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C104" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C105" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C106" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C107" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>181</v>
+    </row>
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E107" s="2"/>
-      <c r="F107" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C108" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E108" s="2"/>
-      <c r="F108" s="1" t="s">
-        <v>193</v>
-      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" s="19"/>
+      <c r="C111" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H111" s="8"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H112" s="7"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B113" s="11"/>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C113" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C114" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C115" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C116" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C117" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C118" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C119" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="3"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="G111:H111"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G38:H38"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G39:I39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/维护组/维护组数据库设计.xlsx
+++ b/维护组/维护组数据库设计.xlsx
@@ -1252,15 +1252,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" customWidth="1"/>

--- a/维护组/维护组数据库设计.xlsx
+++ b/维护组/维护组数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="208">
   <si>
     <r>
       <t>v</t>
@@ -797,6 +797,58 @@
   </si>
   <si>
     <t>o_create_datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_cz_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_create_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -919,22 +971,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -949,10 +1010,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,15 +1022,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1250,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I119"/>
+  <dimension ref="A2:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1267,10 +1323,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1283,16 +1339,16 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1455,10 +1511,10 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1473,10 +1529,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1522,10 +1578,10 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1538,16 +1594,16 @@
       <c r="F24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="1" t="s">
         <v>72</v>
       </c>
@@ -1654,10 +1710,10 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="1" t="s">
         <v>99</v>
       </c>
@@ -1670,16 +1726,16 @@
       <c r="F35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="H35" s="14"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="1" t="s">
         <v>62</v>
       </c>
@@ -1690,8 +1746,8 @@
       <c r="F36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
@@ -1704,10 +1760,10 @@
       <c r="F37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="14"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
@@ -1720,8 +1776,8 @@
       <c r="F38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
@@ -1734,11 +1790,11 @@
       <c r="F39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
     </row>
     <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
@@ -1751,10 +1807,10 @@
       <c r="F40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H40" s="14"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
@@ -1767,10 +1823,10 @@
       <c r="F41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H41" s="14"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
@@ -1785,10 +1841,10 @@
       <c r="F43" s="3"/>
     </row>
     <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="10"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="1" t="s">
         <v>75</v>
       </c>
@@ -1803,10 +1859,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="12"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="1" t="s">
         <v>76</v>
       </c>
@@ -1927,10 +1983,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B59" s="10"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="1" t="s">
         <v>99</v>
       </c>
@@ -1945,10 +2001,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B60" s="12"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="1" t="s">
         <v>100</v>
       </c>
@@ -2081,10 +2137,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B74" s="10"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="1" t="s">
         <v>121</v>
       </c>
@@ -2099,10 +2155,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B75" s="12"/>
+      <c r="B75" s="15"/>
       <c r="C75" s="1" t="s">
         <v>128</v>
       </c>
@@ -2223,10 +2279,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B88" s="10"/>
+      <c r="B88" s="13"/>
       <c r="C88" s="1" t="s">
         <v>99</v>
       </c>
@@ -2241,10 +2297,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B89" s="12"/>
+      <c r="B89" s="15"/>
       <c r="C89" s="1" t="s">
         <v>100</v>
       </c>
@@ -2329,10 +2385,10 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B99" s="19"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="2" t="s">
         <v>145</v>
       </c>
@@ -2345,16 +2401,16 @@
       <c r="F99" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G99" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H99" s="8"/>
+      <c r="H99" s="7"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B100" s="6"/>
+      <c r="B100" s="11"/>
       <c r="C100" s="2" t="s">
         <v>157</v>
       </c>
@@ -2450,141 +2506,204 @@
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C108" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E108" s="21"/>
+      <c r="F108" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C109" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E109" s="21"/>
+      <c r="F109" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C110" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E110" s="21"/>
+      <c r="F110" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="2" t="s">
+      <c r="B114" s="9"/>
+      <c r="C114" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="G114" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H111" s="8"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B112" s="6"/>
-      <c r="C112" s="2" t="s">
+      <c r="B115" s="11"/>
+      <c r="C115" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C113" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C114" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C115" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C116" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C117" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C118" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C119" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C120" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C121" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="119" spans="3:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="3"/>
+    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C122" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E122" s="21"/>
+      <c r="F122" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C123" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E123" s="23"/>
+      <c r="F123" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C124" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E124" s="23"/>
+      <c r="F124" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C125" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E125" s="23"/>
+      <c r="F125" s="22" t="s">
+        <v>207</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="G114:H114"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A18:B18"/>
@@ -2599,6 +2718,21 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/维护组/维护组数据库设计.xlsx
+++ b/维护组/维护组数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="195">
   <si>
     <r>
       <t>v</t>
@@ -797,58 +797,6 @@
   </si>
   <si>
     <t>o_create_datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_cz_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_state</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_create_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_state</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -971,31 +919,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1010,10 +949,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1022,10 +961,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1306,27 +1250,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I125"/>
+  <dimension ref="A2:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:F171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1339,16 +1283,16 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1360,7 +1304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1372,7 +1316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1384,7 +1328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1396,7 +1340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,7 +1352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1420,7 +1364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1432,7 +1376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1444,7 +1388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1456,7 +1400,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>188</v>
       </c>
@@ -1468,7 +1412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1480,7 +1424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>190</v>
       </c>
@@ -1492,29 +1436,29 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1528,11 +1472,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1544,7 +1488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1556,32 +1500,32 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1594,16 +1538,16 @@
       <c r="F24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
         <v>72</v>
       </c>
@@ -1616,7 +1560,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>47</v>
       </c>
@@ -1629,7 +1573,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>48</v>
       </c>
@@ -1642,7 +1586,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1655,7 +1599,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1667,7 +1611,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1679,7 +1623,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>52</v>
       </c>
@@ -1691,29 +1635,29 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="13"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="1" t="s">
         <v>99</v>
       </c>
@@ -1726,16 +1670,16 @@
       <c r="F35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="1" t="s">
         <v>62</v>
       </c>
@@ -1746,10 +1690,10 @@
       <c r="F36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>63</v>
       </c>
@@ -1760,12 +1704,12 @@
       <c r="F37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>64</v>
       </c>
@@ -1776,10 +1720,10 @@
       <c r="F38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>65</v>
       </c>
@@ -1790,13 +1734,13 @@
       <c r="F39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
@@ -1807,12 +1751,12 @@
       <c r="F40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>67</v>
       </c>
@@ -1823,28 +1767,28 @@
       <c r="F41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="13"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="1" t="s">
         <v>75</v>
       </c>
@@ -1858,11 +1802,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+    <row r="46" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="1" t="s">
         <v>76</v>
       </c>
@@ -1874,7 +1818,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>79</v>
       </c>
@@ -1886,7 +1830,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>89</v>
       </c>
@@ -1898,7 +1842,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>90</v>
       </c>
@@ -1910,7 +1854,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>94</v>
       </c>
@@ -1922,7 +1866,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>91</v>
       </c>
@@ -1934,7 +1878,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>92</v>
       </c>
@@ -1946,7 +1890,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>93</v>
       </c>
@@ -1958,7 +1902,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>96</v>
       </c>
@@ -1970,7 +1914,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>95</v>
       </c>
@@ -1982,11 +1926,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B59" s="13"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="1" t="s">
         <v>99</v>
       </c>
@@ -2000,11 +1944,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B60" s="15"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="1" t="s">
         <v>100</v>
       </c>
@@ -2016,7 +1960,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>111</v>
       </c>
@@ -2028,7 +1972,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>112</v>
       </c>
@@ -2040,7 +1984,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>101</v>
       </c>
@@ -2052,7 +1996,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>113</v>
       </c>
@@ -2064,7 +2008,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>114</v>
       </c>
@@ -2076,7 +2020,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>115</v>
       </c>
@@ -2088,7 +2032,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>193</v>
       </c>
@@ -2100,7 +2044,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>117</v>
       </c>
@@ -2112,7 +2056,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>116</v>
       </c>
@@ -2124,7 +2068,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>118</v>
       </c>
@@ -2136,11 +2080,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+    <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B74" s="13"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="1" t="s">
         <v>121</v>
       </c>
@@ -2154,11 +2098,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B75" s="15"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="1" t="s">
         <v>128</v>
       </c>
@@ -2170,7 +2114,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>129</v>
       </c>
@@ -2182,7 +2126,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>130</v>
       </c>
@@ -2194,7 +2138,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="1" t="s">
         <v>131</v>
       </c>
@@ -2206,7 +2150,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="1" t="s">
         <v>132</v>
       </c>
@@ -2218,7 +2162,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>133</v>
       </c>
@@ -2230,7 +2174,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>134</v>
       </c>
@@ -2242,7 +2186,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>135</v>
       </c>
@@ -2254,7 +2198,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>136</v>
       </c>
@@ -2266,7 +2210,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>137</v>
       </c>
@@ -2278,11 +2222,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
+    <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B88" s="13"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="1" t="s">
         <v>99</v>
       </c>
@@ -2296,11 +2240,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
+    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B89" s="15"/>
+      <c r="B89" s="12"/>
       <c r="C89" s="1" t="s">
         <v>100</v>
       </c>
@@ -2312,7 +2256,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>111</v>
       </c>
@@ -2324,7 +2268,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>139</v>
       </c>
@@ -2336,7 +2280,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>140</v>
       </c>
@@ -2348,7 +2292,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>141</v>
       </c>
@@ -2360,7 +2304,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>142</v>
       </c>
@@ -2372,7 +2316,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>118</v>
       </c>
@@ -2384,11 +2328,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+    <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B99" s="9"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="2" t="s">
         <v>145</v>
       </c>
@@ -2401,16 +2345,16 @@
       <c r="F99" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G99" s="6" t="s">
+      <c r="G99" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H99" s="7"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B100" s="11"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="2" t="s">
         <v>157</v>
       </c>
@@ -2422,7 +2366,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="2" t="s">
         <v>158</v>
       </c>
@@ -2434,7 +2378,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="2" t="s">
         <v>159</v>
       </c>
@@ -2446,7 +2390,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="2" t="s">
         <v>160</v>
       </c>
@@ -2458,7 +2402,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="2" t="s">
         <v>161</v>
       </c>
@@ -2470,7 +2414,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="2" t="s">
         <v>162</v>
       </c>
@@ -2482,7 +2426,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="2" t="s">
         <v>178</v>
       </c>
@@ -2494,7 +2438,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="1" t="s">
         <v>194</v>
       </c>
@@ -2506,204 +2450,143 @@
         <v>191</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C108" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E108" s="21"/>
-      <c r="F108" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C109" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E109" s="21"/>
-      <c r="F109" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C110" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E110" s="21"/>
-      <c r="F110" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
+    <row r="111" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B114" s="9"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="2" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H114" s="7"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B115" s="11"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C119" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C120" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C121" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C122" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D122" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E122" s="21"/>
-      <c r="F122" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C123" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D123" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E123" s="23"/>
-      <c r="F123" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C124" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D124" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="E124" s="23"/>
-      <c r="F124" s="22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C125" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D125" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="E125" s="23"/>
-      <c r="F125" s="22" t="s">
-        <v>207</v>
-      </c>
+    <row r="119" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="G111:H111"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A18:B18"/>
@@ -2716,23 +2599,6 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
